--- a/papers/Tables.xlsx
+++ b/papers/Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi\OneDrive - vnu.edu.vn\Lab\Tomato Cultivals Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vnueduvn-my.sharepoint.com/personal/22021106_vnu_edu_vn/Documents/Lab/Tomato-Crop/papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91BC8EF-A804-4FA7-AC6C-B02F53A5530C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E91BC8EF-A804-4FA7-AC6C-B02F53A5530C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50D91037-5654-4FDB-AC62-3CF9C239D8EF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B06D808-EFA9-483A-B3A9-9C0A8E55C1B9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7B06D808-EFA9-483A-B3A9-9C0A8E55C1B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab1" sheetId="1" r:id="rId1"/>
@@ -1463,7 +1463,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$E$28</c15:sqref>
@@ -1490,7 +1490,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$B$29:$C$40</c15:sqref>
@@ -1580,7 +1580,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$E$29:$E$40</c15:sqref>
@@ -1629,7 +1629,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-D951-4D43-A690-E591FF7990A2}"/>
                   </c:ext>
@@ -1642,7 +1642,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$F$28</c15:sqref>
@@ -1669,7 +1669,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$B$29:$C$40</c15:sqref>
@@ -1759,7 +1759,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$F$29:$F$40</c15:sqref>
@@ -1808,7 +1808,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-D951-4D43-A690-E591FF7990A2}"/>
                   </c:ext>
@@ -1821,7 +1821,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$H$28</c15:sqref>
@@ -1848,7 +1848,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$B$29:$C$40</c15:sqref>
@@ -1938,7 +1938,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$H$29:$H$40</c15:sqref>
@@ -1987,7 +1987,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-D951-4D43-A690-E591FF7990A2}"/>
                   </c:ext>
@@ -2000,7 +2000,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$I$28</c15:sqref>
@@ -2027,7 +2027,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$B$29:$C$40</c15:sqref>
@@ -2117,7 +2117,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$I$29:$I$40</c15:sqref>
@@ -2166,7 +2166,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-D951-4D43-A690-E591FF7990A2}"/>
                   </c:ext>
@@ -2179,7 +2179,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$J$28</c15:sqref>
@@ -2208,7 +2208,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$B$29:$C$40</c15:sqref>
@@ -2298,7 +2298,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$J$29:$J$40</c15:sqref>
@@ -2347,7 +2347,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-D951-4D43-A690-E591FF7990A2}"/>
                   </c:ext>
@@ -2360,7 +2360,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$L$28</c15:sqref>
@@ -2389,7 +2389,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$B$29:$C$40</c15:sqref>
@@ -2479,7 +2479,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$L$29:$L$40</c15:sqref>
@@ -2528,7 +2528,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-D951-4D43-A690-E591FF7990A2}"/>
                   </c:ext>
@@ -2541,7 +2541,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$M$28</c15:sqref>
@@ -2570,7 +2570,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$B$29:$C$40</c15:sqref>
@@ -2660,7 +2660,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$M$29:$M$40</c15:sqref>
@@ -2709,7 +2709,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-D951-4D43-A690-E591FF7990A2}"/>
                   </c:ext>
@@ -2722,7 +2722,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$N$28</c15:sqref>
@@ -2751,7 +2751,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:multiLvlStrRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$B$29:$C$40</c15:sqref>
@@ -2841,7 +2841,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'2345'!$N$29:$N$40</c15:sqref>
@@ -2890,7 +2890,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-D951-4D43-A690-E591FF7990A2}"/>
                   </c:ext>
@@ -3973,7 +3973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5D46E1-512A-4AB9-813D-52C8EFC76723}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -4483,8 +4483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7E49AA-2E2C-4617-8600-D7F559A94688}">
   <dimension ref="A2:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7294,47 +7294,47 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f>COUNT(G13:G19)</f>
+        <f t="shared" ref="E20:K20" si="1">COUNT(G13:G19)</f>
         <v>5</v>
       </c>
       <c r="F20">
-        <f>COUNT(H13:H19)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G20">
-        <f>COUNT(I13:I19)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H20">
-        <f>COUNT(J13:J19)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I20">
-        <f>COUNT(K13:K19)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J20">
-        <f>COUNT(L13:L19)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K20">
-        <f>COUNT(M13:M19)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="X20" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B20:$U20, $B$12:$W$12, X$2), "")</f>
+        <f t="shared" ref="X20:AA24" si="2">IFERROR(AVERAGEIFS($B20:$U20, $B$12:$W$12, X$2), "")</f>
         <v/>
       </c>
       <c r="Y20" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B20:$U20, $B$12:$W$12, Y$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z20" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B20:$U20, $B$12:$W$12, Z$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AA20" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B20:$U20, $B$12:$W$12, AA$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7347,56 +7347,56 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:D21" si="1">COUNTIF(C13:C19,"&gt;60")</f>
+        <f t="shared" ref="C21:D21" si="3">COUNTIF(C13:C19,"&gt;60")</f>
         <v>4</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E21">
-        <f>COUNTIF(G13:G19,"&gt;60")</f>
+        <f t="shared" ref="E21:K21" si="4">COUNTIF(G13:G19,"&gt;60")</f>
         <v>5</v>
       </c>
       <c r="F21">
-        <f>COUNTIF(H13:H19,"&gt;60")</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="G21">
-        <f>COUNTIF(I13:I19,"&gt;60")</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H21">
-        <f>COUNTIF(J13:J19,"&gt;60")</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="I21">
-        <f>COUNTIF(K13:K19,"&gt;60")</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J21">
-        <f>COUNTIF(L13:L19,"&gt;60")</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="K21">
-        <f>COUNTIF(M13:M19,"&gt;60")</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="R21" s="3"/>
       <c r="X21" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B21:$U21, $B$12:$W$12, X$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Y21" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B21:$U21, $B$12:$W$12, Y$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z21" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B21:$U21, $B$12:$W$12, Z$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AA21" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B21:$U21, $B$12:$W$12, AA$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7409,55 +7409,55 @@
         <v>94.719999999999985</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:D22" si="2">AVERAGE(C13:C19)</f>
+        <f t="shared" ref="C22:D22" si="5">AVERAGE(C13:C19)</f>
         <v>96.625</v>
       </c>
       <c r="D22" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ref="E22:K22" si="6">AVERAGE(G13:G19)</f>
+        <v>96.472000000000008</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="6"/>
+        <v>84.304999999999993</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>83.108333333333334</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>91.417142857142849</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="6"/>
+        <v>100.03571428571429</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>109.07857142857142</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>85.13</v>
+      </c>
+      <c r="X22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22">
-        <f>AVERAGE(G13:G19)</f>
-        <v>96.472000000000008</v>
-      </c>
-      <c r="F22">
-        <f>AVERAGE(H13:H19)</f>
-        <v>84.304999999999993</v>
-      </c>
-      <c r="G22">
-        <f>AVERAGE(I13:I19)</f>
-        <v>83.108333333333334</v>
-      </c>
-      <c r="H22">
-        <f>AVERAGE(J13:J19)</f>
-        <v>91.417142857142849</v>
-      </c>
-      <c r="I22">
-        <f>AVERAGE(K13:K19)</f>
-        <v>100.03571428571429</v>
-      </c>
-      <c r="J22">
-        <f>AVERAGE(L13:L19)</f>
-        <v>109.07857142857142</v>
-      </c>
-      <c r="K22">
-        <f>AVERAGE(M13:M19)</f>
-        <v>85.13</v>
-      </c>
-      <c r="X22" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B22:$U22, $B$12:$W$12, X$2), "")</f>
         <v/>
       </c>
       <c r="Y22" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B22:$U22, $B$12:$W$12, Y$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z22" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B22:$U22, $B$12:$W$12, Z$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AA22" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B22:$U22, $B$12:$W$12, AA$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7470,56 +7470,56 @@
         <v>94.719999999999985</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:D23" si="3">AVERAGEIF(C13:C19,"&gt;60")</f>
+        <f t="shared" ref="C23:D23" si="7">AVERAGEIF(C13:C19,"&gt;60")</f>
         <v>96.625</v>
       </c>
       <c r="D23" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E23">
-        <f>AVERAGEIF(G13:G19,"&gt;60")</f>
+        <f t="shared" ref="E23:K23" si="8">AVERAGEIF(G13:G19,"&gt;60")</f>
         <v>96.472000000000008</v>
       </c>
       <c r="F23">
-        <f>AVERAGEIF(H13:H19,"&gt;60")</f>
+        <f t="shared" si="8"/>
         <v>84.304999999999993</v>
       </c>
       <c r="G23">
-        <f>AVERAGEIF(I13:I19,"&gt;60")</f>
+        <f t="shared" si="8"/>
         <v>83.108333333333334</v>
       </c>
       <c r="H23">
-        <f>AVERAGEIF(J13:J19,"&gt;60")</f>
+        <f t="shared" si="8"/>
         <v>108.9</v>
       </c>
       <c r="I23">
-        <f>AVERAGEIF(K13:K19,"&gt;60")</f>
+        <f t="shared" si="8"/>
         <v>107.47500000000001</v>
       </c>
       <c r="J23">
-        <f>AVERAGEIF(L13:L19,"&gt;60")</f>
+        <f t="shared" si="8"/>
         <v>109.07857142857142</v>
       </c>
       <c r="K23">
-        <f>AVERAGEIF(M13:M19,"&gt;60")</f>
+        <f t="shared" si="8"/>
         <v>85.13</v>
       </c>
       <c r="R23" s="27"/>
       <c r="X23" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B23:$U23, $B$12:$W$12, X$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Y23" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B23:$U23, $B$12:$W$12, Y$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z23" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B23:$U23, $B$12:$W$12, Z$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AA23" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B23:$U23, $B$12:$W$12, AA$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7532,56 +7532,56 @@
         <v>17.033425961913967</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:D24" si="4">STDEV(C13:C19)</f>
+        <f t="shared" ref="C24:D24" si="9">STDEV(C13:C19)</f>
         <v>19.261459792376421</v>
       </c>
       <c r="D24" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E24">
-        <f>STDEV(G13:G19)</f>
+        <f t="shared" ref="E24:K24" si="10">STDEV(G13:G19)</f>
         <v>12.334345138676746</v>
       </c>
       <c r="F24">
-        <f>STDEV(H13:H19)</f>
+        <f t="shared" si="10"/>
         <v>10.898762773819794</v>
       </c>
       <c r="G24">
-        <f>STDEV(I13:I19)</f>
+        <f t="shared" si="10"/>
         <v>5.653973529003002</v>
       </c>
       <c r="H24">
-        <f>STDEV(J13:J19)</f>
+        <f t="shared" si="10"/>
         <v>31.600128541028518</v>
       </c>
       <c r="I24">
-        <f>STDEV(K13:K19)</f>
+        <f t="shared" si="10"/>
         <v>27.527537035450443</v>
       </c>
       <c r="J24">
-        <f>STDEV(L13:L19)</f>
+        <f t="shared" si="10"/>
         <v>23.420883436633702</v>
       </c>
       <c r="K24">
-        <f>STDEV(M13:M19)</f>
+        <f t="shared" si="10"/>
         <v>19.412384363252961</v>
       </c>
       <c r="R24" s="3"/>
       <c r="X24" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B24:$U24, $B$12:$W$12, X$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Y24" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B24:$U24, $B$12:$W$12, Y$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Z24" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B24:$U24, $B$12:$W$12, Z$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AA24" s="1" t="str">
-        <f>IFERROR(AVERAGEIFS($B24:$U24, $B$12:$W$12, AA$2), "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -7919,59 +7919,59 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:P35" si="5">COUNT(C28:C34)</f>
+        <f t="shared" ref="C35:P35" si="11">COUNT(C28:C34)</f>
         <v>5</v>
       </c>
       <c r="D35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="F35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="G35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="H35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="J35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="K35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="L35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="M35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="N35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="P35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="X35" s="1">
@@ -7979,15 +7979,15 @@
         <v>4.2</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" ref="Y35:AA39" si="6">IFERROR(AVERAGEIFS($B35:$U35, $B$27:$U$27, Y$2), "")</f>
+        <f t="shared" ref="Y35:AA39" si="12">IFERROR(AVERAGEIFS($B35:$U35, $B$27:$U$27, Y$2), "")</f>
         <v>5.8</v>
       </c>
       <c r="Z35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4.8</v>
       </c>
       <c r="AA35" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8000,75 +8000,75 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:P36" si="7">COUNTIF(C28:C34,"&gt;60")</f>
+        <f t="shared" ref="C36:P36" si="13">COUNTIF(C28:C34,"&gt;60")</f>
         <v>5</v>
       </c>
       <c r="D36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="E36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="F36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="G36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="H36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="I36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="J36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="K36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="L36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="M36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="N36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="O36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="P36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" ref="X36:X39" si="8">IFERROR(AVERAGEIFS($B36:$U36, $B$27:$U$27, X$2), "")</f>
+        <f t="shared" ref="X36:X39" si="14">IFERROR(AVERAGEIFS($B36:$U36, $B$27:$U$27, X$2), "")</f>
         <v>4.2</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>5.6</v>
       </c>
       <c r="Z36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="AA36" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8081,75 +8081,75 @@
         <v>94.454000000000008</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37:P37" si="9">AVERAGE(C28:C34)</f>
+        <f t="shared" ref="C37:P37" si="15">AVERAGE(C28:C34)</f>
         <v>78.468000000000004</v>
       </c>
       <c r="D37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>82.0625</v>
       </c>
       <c r="E37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>85.195000000000007</v>
       </c>
       <c r="F37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>80.607142857142861</v>
       </c>
       <c r="G37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>64.265999999999991</v>
       </c>
       <c r="H37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>99.836666666666659</v>
       </c>
       <c r="I37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>89.075000000000003</v>
       </c>
       <c r="J37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>67.477999999999994</v>
       </c>
       <c r="K37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>87.649999999999991</v>
       </c>
       <c r="L37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>98.759999999999991</v>
       </c>
       <c r="M37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>83.451999999999998</v>
       </c>
       <c r="N37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>102.26666666666667</v>
       </c>
       <c r="O37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>114.33166666666666</v>
       </c>
       <c r="P37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>82.332000000000008</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>93.880466666666649</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>92.248361904761893</v>
       </c>
       <c r="Z37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>75.918099999999995</v>
       </c>
       <c r="AA37" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8162,75 +8162,75 @@
         <v>94.454000000000008</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:P38" si="10">AVERAGEIF(C28:C34,"&gt;60")</f>
+        <f t="shared" ref="C38:P38" si="16">AVERAGEIF(C28:C34,"&gt;60")</f>
         <v>78.468000000000004</v>
       </c>
       <c r="D38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>82.0625</v>
       </c>
       <c r="E38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>85.195000000000007</v>
       </c>
       <c r="F38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>84.265000000000001</v>
       </c>
       <c r="G38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>70.952500000000001</v>
       </c>
       <c r="H38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>99.836666666666659</v>
       </c>
       <c r="I38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>89.075000000000003</v>
       </c>
       <c r="J38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>77.7</v>
       </c>
       <c r="K38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>87.649999999999991</v>
       </c>
       <c r="L38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>98.759999999999991</v>
       </c>
       <c r="M38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>91.174999999999997</v>
       </c>
       <c r="N38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>102.26666666666667</v>
       </c>
       <c r="O38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>114.33166666666666</v>
       </c>
       <c r="P38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>82.332000000000008</v>
       </c>
       <c r="X38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>93.880466666666649</v>
       </c>
       <c r="Y38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>92.979933333333321</v>
       </c>
       <c r="Z38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>80.844399999999993</v>
       </c>
       <c r="AA38" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8243,75 +8243,75 @@
         <v>19.024174883552707</v>
       </c>
       <c r="C39">
-        <f t="shared" ref="C39:P39" si="11">STDEV(C28:C34)</f>
+        <f t="shared" ref="C39:P39" si="17">STDEV(C28:C34)</f>
         <v>9.9606310041080874</v>
       </c>
       <c r="D39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>5.0565230148789038</v>
       </c>
       <c r="E39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>6.7202901723065489</v>
       </c>
       <c r="F39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>19.337950351821778</v>
       </c>
       <c r="G39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>18.375855898433691</v>
       </c>
       <c r="H39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>11.730875215998733</v>
       </c>
       <c r="I39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>14.265046442265753</v>
       </c>
       <c r="J39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>16.106178007211998</v>
       </c>
       <c r="K39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>10.492835651052575</v>
       </c>
       <c r="L39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>29.435113385207195</v>
       </c>
       <c r="M39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>39.002482869684066</v>
       </c>
       <c r="N39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>13.383580736609058</v>
       </c>
       <c r="O39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>14.749236477413467</v>
       </c>
       <c r="P39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>13.067860192089567</v>
       </c>
       <c r="X39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>12.270351331903925</v>
       </c>
       <c r="Y39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>17.549595532163256</v>
       </c>
       <c r="Z39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>18.321779996459647</v>
       </c>
       <c r="AA39" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -8808,79 +8808,79 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:U53" si="12">COUNT(C43:C52)</f>
+        <f t="shared" ref="C53:U53" si="18">COUNT(C43:C52)</f>
         <v>6</v>
       </c>
       <c r="D53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="E53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="F53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="G53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="H53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="I53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="J53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="K53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="L53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="M53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="N53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="O53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="P53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="R53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="S53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="T53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="U53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="X53" s="1">
@@ -8888,15 +8888,15 @@
         <v>7.4</v>
       </c>
       <c r="Y53" s="1">
-        <f t="shared" ref="Y53:AA57" si="13">IFERROR(AVERAGEIFS($B53:$U53, $B$42:$U$42, Y$2), "")</f>
+        <f t="shared" ref="Y53:AA57" si="19">IFERROR(AVERAGEIFS($B53:$U53, $B$42:$U$42, Y$2), "")</f>
         <v>5.6</v>
       </c>
       <c r="Z53" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="AA53" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
     </row>
@@ -8909,95 +8909,95 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:U54" si="14">COUNTIF(C43:C52,"&gt;60")</f>
+        <f t="shared" ref="C54:U54" si="20">COUNTIF(C43:C52,"&gt;60")</f>
         <v>5</v>
       </c>
       <c r="D54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="E54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="F54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="G54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="H54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="I54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="J54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="K54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="L54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="M54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="N54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="O54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="P54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="R54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="S54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="T54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="U54">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="X54" s="1">
-        <f t="shared" ref="X54:X57" si="15">IFERROR(AVERAGEIFS($B54:$U54, $B$42:$U$42, X$2), "")</f>
+        <f t="shared" ref="X54:X57" si="21">IFERROR(AVERAGEIFS($B54:$U54, $B$42:$U$42, X$2), "")</f>
         <v>6.8</v>
       </c>
       <c r="Y54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="Z54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="AA54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
     </row>
@@ -9010,95 +9010,95 @@
         <v>113.29857142857142</v>
       </c>
       <c r="C55">
-        <f t="shared" ref="C55:U55" si="16">AVERAGE(C43:C52)</f>
+        <f t="shared" ref="C55:U55" si="22">AVERAGE(C43:C52)</f>
         <v>77.51166666666667</v>
       </c>
       <c r="D55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>73.600000000000009</v>
       </c>
       <c r="E55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>59.673333333333339</v>
       </c>
       <c r="F55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>90.191249999999997</v>
       </c>
       <c r="G55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>86.791666666666671</v>
       </c>
       <c r="H55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>73.78</v>
       </c>
       <c r="I55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>73.907142857142858</v>
       </c>
       <c r="J55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>89.078571428571422</v>
       </c>
       <c r="K55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>78.395714285714263</v>
       </c>
       <c r="L55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>82.515000000000001</v>
       </c>
       <c r="M55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>77.578000000000003</v>
       </c>
       <c r="N55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>86.581000000000003</v>
       </c>
       <c r="O55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>77.712000000000003</v>
       </c>
       <c r="P55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>72.3125</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>75.171666666666667</v>
       </c>
       <c r="R55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>91.492000000000004</v>
       </c>
       <c r="S55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>95.11</v>
       </c>
       <c r="T55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>73.548000000000002</v>
       </c>
       <c r="U55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>96.007499999999993</v>
       </c>
       <c r="X55" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>94.128278571428581</v>
       </c>
       <c r="Y55" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>83.10420952380953</v>
       </c>
       <c r="Z55" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>75.1511</v>
       </c>
       <c r="AA55" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>76.467528571428574</v>
       </c>
     </row>
@@ -9111,95 +9111,95 @@
         <v>113.29857142857142</v>
       </c>
       <c r="C56">
-        <f t="shared" ref="C56:U56" si="17">AVERAGEIF(C43:C52,"&gt;60")</f>
+        <f t="shared" ref="C56:U56" si="23">AVERAGEIF(C43:C52,"&gt;60")</f>
         <v>81.444000000000003</v>
       </c>
       <c r="D56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>80.50800000000001</v>
       </c>
       <c r="E56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>76.790000000000006</v>
       </c>
       <c r="F56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>90.191249999999997</v>
       </c>
       <c r="G56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>86.791666666666671</v>
       </c>
       <c r="H56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>77.837500000000006</v>
       </c>
       <c r="I56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>78.671666666666667</v>
       </c>
       <c r="J56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>94.006666666666661</v>
       </c>
       <c r="K56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>89.513999999999982</v>
       </c>
       <c r="L56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>82.515000000000001</v>
       </c>
       <c r="M56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>84.78</v>
       </c>
       <c r="N56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>89.802222222222213</v>
       </c>
       <c r="O56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>77.712000000000003</v>
       </c>
       <c r="P56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>77.846666666666678</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>78.400000000000006</v>
       </c>
       <c r="R56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>101.79</v>
       </c>
       <c r="S56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>95.11</v>
       </c>
       <c r="T56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>77.157499999999999</v>
       </c>
       <c r="U56">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>96.007499999999993</v>
       </c>
       <c r="X56" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>97.817742063492062</v>
       </c>
       <c r="Y56" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>86.114333333333335</v>
       </c>
       <c r="Z56" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>79.172933333333347</v>
       </c>
       <c r="AA56" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>82.929833333333335</v>
       </c>
     </row>
@@ -9212,95 +9212,95 @@
         <v>31.731966757289367</v>
       </c>
       <c r="C57">
-        <f t="shared" ref="C57:U57" si="18">STDEV(C43:C52)</f>
+        <f t="shared" ref="C57:U57" si="24">STDEV(C43:C52)</f>
         <v>12.740655268339449</v>
       </c>
       <c r="D57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>12.870802875759731</v>
       </c>
       <c r="E57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>16.565664288924047</v>
       </c>
       <c r="F57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>11.899993322327115</v>
       </c>
       <c r="G57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>15.195270865195752</v>
       </c>
       <c r="H57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>10.486260057808947</v>
       </c>
       <c r="I57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>16.296380696630848</v>
       </c>
       <c r="J57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>16.813766610104054</v>
       </c>
       <c r="K57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>20.766083611779834</v>
       </c>
       <c r="L57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>13.397812010424168</v>
       </c>
       <c r="M57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>21.455786399011384</v>
       </c>
       <c r="N57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>20.304218198853782</v>
       </c>
       <c r="O57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>7.2559437704546745</v>
       </c>
       <c r="P57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>13.514092336027106</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>12.038354400276898</v>
       </c>
       <c r="R57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>30.808550274233905</v>
       </c>
       <c r="S57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>10.187780261993614</v>
       </c>
       <c r="T57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>11.540975695321436</v>
       </c>
       <c r="U57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>5.5959650642226162</v>
       </c>
       <c r="X57" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>22.311699032561645</v>
       </c>
       <c r="Y57" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>13.229146755552666</v>
       </c>
       <c r="Z57" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>12.361988595068278</v>
       </c>
       <c r="AA57" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>14.390430169813158</v>
       </c>
     </row>
@@ -9549,39 +9549,39 @@
         <v>5</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:K69" si="19">COUNT(C62:C68)</f>
+        <f t="shared" ref="C69:K69" si="25">COUNT(C62:C68)</f>
         <v>5</v>
       </c>
       <c r="D69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="E69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="F69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="G69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="H69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="I69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="J69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="K69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="X69" s="1">
@@ -9589,15 +9589,15 @@
         <v>5.2</v>
       </c>
       <c r="Y69" s="1">
-        <f t="shared" ref="Y69:AA73" si="20">IFERROR(AVERAGEIFS($B69:$U69, $B$61:$U$61, Y$2), "")</f>
+        <f t="shared" ref="Y69:AA73" si="26">IFERROR(AVERAGEIFS($B69:$U69, $B$61:$U$61, Y$2), "")</f>
         <v>5.8</v>
       </c>
       <c r="Z69" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AA69" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -9610,55 +9610,55 @@
         <v>5</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:K70" si="21">COUNTIF(C62:C68,"&gt;60")</f>
+        <f t="shared" ref="C70:K70" si="27">COUNTIF(C62:C68,"&gt;60")</f>
         <v>2</v>
       </c>
       <c r="D70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="E70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
       <c r="F70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="G70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="H70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="I70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="J70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
       <c r="K70">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="X70" s="1">
-        <f t="shared" ref="X70:X73" si="22">IFERROR(AVERAGEIFS($B70:$U70, $B$61:$U$61, X$2), "")</f>
+        <f t="shared" ref="X70:X73" si="28">IFERROR(AVERAGEIFS($B70:$U70, $B$61:$U$61, X$2), "")</f>
         <v>5.2</v>
       </c>
       <c r="Y70" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="Z70" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AA70" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -9671,55 +9671,55 @@
         <v>74.837999999999994</v>
       </c>
       <c r="C71">
-        <f t="shared" ref="C71:K71" si="23">AVERAGE(C62:C68)</f>
+        <f t="shared" ref="C71:K71" si="29">AVERAGE(C62:C68)</f>
         <v>50.9</v>
       </c>
       <c r="D71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>85.23599999999999</v>
       </c>
       <c r="E71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>82.49199999999999</v>
       </c>
       <c r="F71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>80.034000000000006</v>
       </c>
       <c r="G71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>88.468571428571423</v>
       </c>
       <c r="H71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>84.61999999999999</v>
       </c>
       <c r="I71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>89.584999999999994</v>
       </c>
       <c r="J71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>96.06</v>
       </c>
       <c r="K71">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>78.234999999999999</v>
       </c>
       <c r="X71" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>84.157600000000002</v>
       </c>
       <c r="Y71" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>77.936114285714282</v>
       </c>
       <c r="Z71" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AA71" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -9732,55 +9732,55 @@
         <v>74.837999999999994</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:K72" si="24">AVERAGEIF(C62:C68,"&gt;60")</f>
+        <f t="shared" ref="C72:K72" si="30">AVERAGEIF(C62:C68,"&gt;60")</f>
         <v>65.454999999999998</v>
       </c>
       <c r="D72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>85.23599999999999</v>
       </c>
       <c r="E72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>98.949999999999989</v>
       </c>
       <c r="F72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>80.034000000000006</v>
       </c>
       <c r="G72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>88.468571428571423</v>
       </c>
       <c r="H72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>84.61999999999999</v>
       </c>
       <c r="I72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>89.584999999999994</v>
       </c>
       <c r="J72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>96.06</v>
       </c>
       <c r="K72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>82.725999999999999</v>
       </c>
       <c r="X72" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>84.157600000000002</v>
       </c>
       <c r="Y72" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>85.036914285714275</v>
       </c>
       <c r="Z72" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AA72" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -9793,55 +9793,55 @@
         <v>15.454215282569377</v>
       </c>
       <c r="C73">
-        <f t="shared" ref="C73:K73" si="25">STDEV(C62:C68)</f>
+        <f t="shared" ref="C73:K73" si="31">STDEV(C62:C68)</f>
         <v>13.557247139445394</v>
       </c>
       <c r="D73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>8.3841713961488153</v>
       </c>
       <c r="E73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>27.270971196493896</v>
       </c>
       <c r="F73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>12.57461848327814</v>
       </c>
       <c r="G73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>14.064725887329502</v>
       </c>
       <c r="H73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>11.89867499626196</v>
       </c>
       <c r="I73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>7.5796272995444829</v>
       </c>
       <c r="J73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>5.522686544306735</v>
       </c>
       <c r="K73">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>19.868258856779619</v>
       </c>
       <c r="X73" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>10.766873340513007</v>
       </c>
       <c r="Y73" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>16.468166075918578</v>
       </c>
       <c r="Z73" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AA73" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
@@ -10180,59 +10180,59 @@
         <v>6</v>
       </c>
       <c r="C86">
-        <f t="shared" ref="C86:P86" si="26">COUNT(C79:C85)</f>
+        <f t="shared" ref="C86:P86" si="32">COUNT(C79:C85)</f>
         <v>5</v>
       </c>
       <c r="D86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="E86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="F86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="G86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="H86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="I86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="J86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="K86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>7</v>
       </c>
       <c r="L86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="M86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="N86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="O86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="P86">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>4</v>
       </c>
       <c r="X86" s="1">
@@ -10240,15 +10240,15 @@
         <v>5.8</v>
       </c>
       <c r="Y86" s="1">
-        <f t="shared" ref="Y86:AA90" si="27">IFERROR(AVERAGEIFS($B86:$U86, $B$78:$U$78, Y$2), "")</f>
+        <f t="shared" ref="Y86:AA90" si="33">IFERROR(AVERAGEIFS($B86:$U86, $B$78:$U$78, Y$2), "")</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="Z86" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>5.4</v>
       </c>
       <c r="AA86" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -10261,75 +10261,75 @@
         <v>6</v>
       </c>
       <c r="C87">
-        <f t="shared" ref="C87:P87" si="28">COUNTIF(C79:C85,"&gt;60")</f>
+        <f t="shared" ref="C87:P87" si="34">COUNTIF(C79:C85,"&gt;60")</f>
         <v>4</v>
       </c>
       <c r="D87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="E87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="F87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="G87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="H87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="I87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="J87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="K87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>7</v>
       </c>
       <c r="L87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="M87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="N87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="O87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="P87">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="X87" s="1">
-        <f t="shared" ref="X87:X90" si="29">IFERROR(AVERAGEIFS($B87:$U87, $B$78:$U$78, X$2), "")</f>
+        <f t="shared" ref="X87:X90" si="35">IFERROR(AVERAGEIFS($B87:$U87, $B$78:$U$78, X$2), "")</f>
         <v>5.8</v>
       </c>
       <c r="Y87" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>4.2</v>
       </c>
       <c r="Z87" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>4.8</v>
       </c>
       <c r="AA87" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -10342,75 +10342,75 @@
         <v>120.60166666666665</v>
       </c>
       <c r="C88">
-        <f t="shared" ref="C88:P88" si="30">AVERAGE(C79:C85)</f>
+        <f t="shared" ref="C88:P88" si="36">AVERAGE(C79:C85)</f>
         <v>85.108000000000004</v>
       </c>
       <c r="D88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>100.69500000000001</v>
       </c>
       <c r="E88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>98.22999999999999</v>
       </c>
       <c r="F88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>89.248000000000005</v>
       </c>
       <c r="G88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>102.52000000000001</v>
       </c>
       <c r="H88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>83.473333333333343</v>
       </c>
       <c r="I88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>79.653333333333336</v>
       </c>
       <c r="J88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>73.966666666666683</v>
       </c>
       <c r="K88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>91.924285714285716</v>
       </c>
       <c r="L88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>74.528333333333336</v>
       </c>
       <c r="M88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>72.291666666666657</v>
       </c>
       <c r="N88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>96.864000000000004</v>
       </c>
       <c r="O88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>87.53</v>
       </c>
       <c r="P88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="36"/>
         <v>80.397499999999994</v>
       </c>
       <c r="X88" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>98.21865714285714</v>
       </c>
       <c r="Y88" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>83.213533333333345</v>
       </c>
       <c r="Z88" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>85.974166666666662</v>
       </c>
       <c r="AA88" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -10423,75 +10423,75 @@
         <v>120.60166666666665</v>
       </c>
       <c r="C89">
-        <f t="shared" ref="C89:P89" si="31">AVERAGEIF(C79:C85,"&gt;60")</f>
+        <f t="shared" ref="C89:P89" si="37">AVERAGEIF(C79:C85,"&gt;60")</f>
         <v>92.67</v>
       </c>
       <c r="D89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>100.69500000000001</v>
       </c>
       <c r="E89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>98.22999999999999</v>
       </c>
       <c r="F89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>89.248000000000005</v>
       </c>
       <c r="G89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>102.52000000000001</v>
       </c>
       <c r="H89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>83.473333333333343</v>
       </c>
       <c r="I89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>79.653333333333336</v>
       </c>
       <c r="J89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>77.647999999999996</v>
       </c>
       <c r="K89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>91.924285714285716</v>
       </c>
       <c r="L89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>80.146000000000001</v>
       </c>
       <c r="M89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>75.91</v>
       </c>
       <c r="N89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>96.864000000000004</v>
       </c>
       <c r="O89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>87.53</v>
       </c>
       <c r="P89">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>87.509999999999991</v>
       </c>
       <c r="X89" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>98.21865714285714</v>
       </c>
       <c r="Y89" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>85.849466666666672</v>
       </c>
       <c r="Z89" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>88.8566</v>
       </c>
       <c r="AA89" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -10504,75 +10504,75 @@
         <v>26.436465283140144</v>
       </c>
       <c r="C90">
-        <f t="shared" ref="C90:P90" si="32">STDEV(C79:C85)</f>
+        <f t="shared" ref="C90:P90" si="38">STDEV(C79:C85)</f>
         <v>19.756557645500809</v>
       </c>
       <c r="D90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>10.90526799303896</v>
       </c>
       <c r="E90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>10.409152222923824</v>
       </c>
       <c r="F90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>14.482954463782594</v>
       </c>
       <c r="G90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>9.524534109340987</v>
       </c>
       <c r="H90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>11.518799705987774</v>
       </c>
       <c r="I90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>10.232870239250198</v>
       </c>
       <c r="J90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>11.416978000621061</v>
       </c>
       <c r="K90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>20.395896529402538</v>
       </c>
       <c r="L90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>19.306315460663818</v>
       </c>
       <c r="M90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>11.097353588431281</v>
       </c>
       <c r="N90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>20.557436124186285</v>
       </c>
       <c r="O90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>15.824059740365835</v>
       </c>
       <c r="P90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="38"/>
         <v>19.452436651141369</v>
       </c>
       <c r="X90" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>17.863549973128112</v>
       </c>
       <c r="Y90" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>15.92055150991265</v>
       </c>
       <c r="Z90" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v>12.47931406851473</v>
       </c>
       <c r="AA90" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -10971,63 +10971,63 @@
         <v>6</v>
       </c>
       <c r="C101">
-        <f t="shared" ref="C101:Q101" si="33">COUNT(C94:C100)</f>
+        <f t="shared" ref="C101:Q101" si="39">COUNT(C94:C100)</f>
         <v>7</v>
       </c>
       <c r="D101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="E101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="F101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="G101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="H101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="I101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="J101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="K101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="L101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="M101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="N101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="O101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>6</v>
       </c>
       <c r="P101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="33"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="X101" s="1">
@@ -11035,15 +11035,15 @@
         <v>6.25</v>
       </c>
       <c r="Y101" s="1">
-        <f t="shared" ref="Y101:AA105" si="34">IFERROR(AVERAGEIFS($B101:$U101, $B$93:$U$93, Y$2), "")</f>
+        <f t="shared" ref="Y101:AA105" si="40">IFERROR(AVERAGEIFS($B101:$U101, $B$93:$U$93, Y$2), "")</f>
         <v>6.5</v>
       </c>
       <c r="Z101" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>4.5</v>
       </c>
       <c r="AA101" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>3.25</v>
       </c>
     </row>
@@ -11056,79 +11056,79 @@
         <v>5</v>
       </c>
       <c r="C102">
-        <f t="shared" ref="C102:Q102" si="35">COUNTIF(C94:C100,"&gt;60")</f>
+        <f t="shared" ref="C102:Q102" si="41">COUNTIF(C94:C100,"&gt;60")</f>
         <v>7</v>
       </c>
       <c r="D102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="E102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="F102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="G102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="H102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
       <c r="I102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="J102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="K102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="L102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>7</v>
       </c>
       <c r="M102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="N102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="O102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>6</v>
       </c>
       <c r="P102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="35"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="X102" s="1">
-        <f t="shared" ref="X102:X105" si="36">IFERROR(AVERAGEIFS($B102:$U102, $B$93:$U$93, X$2), "")</f>
+        <f t="shared" ref="X102:X105" si="42">IFERROR(AVERAGEIFS($B102:$U102, $B$93:$U$93, X$2), "")</f>
         <v>6</v>
       </c>
       <c r="Y102" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>6.5</v>
       </c>
       <c r="Z102" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>4.25</v>
       </c>
       <c r="AA102" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>2.75</v>
       </c>
     </row>
@@ -11141,79 +11141,79 @@
         <v>85.850000000000009</v>
       </c>
       <c r="C103">
-        <f t="shared" ref="C103:Q103" si="37">AVERAGE(C94:C100)</f>
+        <f t="shared" ref="C103:Q103" si="43">AVERAGE(C94:C100)</f>
         <v>82.46142857142857</v>
       </c>
       <c r="D103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>78.673333333333332</v>
       </c>
       <c r="E103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>61.164999999999999</v>
       </c>
       <c r="F103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>109.75833333333334</v>
       </c>
       <c r="G103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>96.46</v>
       </c>
       <c r="H103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>99.027500000000003</v>
       </c>
       <c r="I103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>94.723333333333343</v>
       </c>
       <c r="J103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>92.167142857142849</v>
       </c>
       <c r="K103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>94.009999999999991</v>
       </c>
       <c r="L103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>88.69714285714285</v>
       </c>
       <c r="M103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>97.316666666666663</v>
       </c>
       <c r="N103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>101.99000000000001</v>
       </c>
       <c r="O103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>77.024999999999991</v>
       </c>
       <c r="P103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>79.052500000000009</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="37"/>
+        <f t="shared" si="43"/>
         <v>82.426666666666662</v>
       </c>
       <c r="X103" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>97.441369047619048</v>
       </c>
       <c r="Y103" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>87.489107142857137</v>
       </c>
       <c r="Z103" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>86.362619047619049</v>
       </c>
       <c r="AA103" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>83.907916666666665</v>
       </c>
     </row>
@@ -11226,79 +11226,79 @@
         <v>91.429999999999993</v>
       </c>
       <c r="C104">
-        <f t="shared" ref="C104:Q104" si="38">AVERAGEIF(C94:C100,"&gt;60")</f>
+        <f t="shared" ref="C104:Q104" si="44">AVERAGEIF(C94:C100,"&gt;60")</f>
         <v>82.46142857142857</v>
       </c>
       <c r="D104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>78.673333333333332</v>
       </c>
       <c r="E104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>67.14</v>
       </c>
       <c r="F104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>109.75833333333334</v>
       </c>
       <c r="G104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>96.46</v>
       </c>
       <c r="H104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>99.027500000000003</v>
       </c>
       <c r="I104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>94.723333333333343</v>
       </c>
       <c r="J104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>92.167142857142849</v>
       </c>
       <c r="K104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>94.009999999999991</v>
       </c>
       <c r="L104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>88.69714285714285</v>
       </c>
       <c r="M104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>97.316666666666663</v>
       </c>
       <c r="N104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>101.99000000000001</v>
       </c>
       <c r="O104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>77.024999999999991</v>
       </c>
       <c r="P104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>86.283333333333346</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="38"/>
+        <f t="shared" si="44"/>
         <v>82.426666666666662</v>
       </c>
       <c r="X104" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>98.836369047619044</v>
       </c>
       <c r="Y104" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>87.489107142857137</v>
       </c>
       <c r="Z104" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>88.170327380952386</v>
       </c>
       <c r="AA104" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>85.401666666666671</v>
       </c>
     </row>
@@ -11311,79 +11311,79 @@
         <v>17.22351067581755</v>
       </c>
       <c r="C105">
-        <f t="shared" ref="C105:Q105" si="39">STDEV(C94:C100)</f>
+        <f t="shared" ref="C105:Q105" si="45">STDEV(C94:C100)</f>
         <v>14.506682860635191</v>
       </c>
       <c r="D105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>10.501810954941732</v>
       </c>
       <c r="E105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9.0793703893313875</v>
       </c>
       <c r="F105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>16.466702665277715</v>
       </c>
       <c r="G105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>14.121435243392787</v>
       </c>
       <c r="H105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9.2407949694096505</v>
       </c>
       <c r="I105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>12.537182033189639</v>
       </c>
       <c r="J105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>22.948211051761522</v>
       </c>
       <c r="K105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>12.469538884818535</v>
       </c>
       <c r="L105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>9.8276848991097285</v>
       </c>
       <c r="M105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>13.522756129330078</v>
       </c>
       <c r="N105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>17.488318386854669</v>
       </c>
       <c r="O105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>14.911985447954322</v>
       </c>
       <c r="P105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>23.699364794581811</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>11.176986773425778</v>
       </c>
       <c r="X105" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>18.531685694927866</v>
       </c>
       <c r="Y105" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>14.002410609200208</v>
       </c>
       <c r="Z105" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>13.31741390451073</v>
       </c>
       <c r="AA105" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>11.579073831319221</v>
       </c>
     </row>
@@ -11640,19 +11640,19 @@
         <v>10</v>
       </c>
       <c r="D117">
-        <f t="shared" ref="D117:J117" si="40">COUNT(D109:E116)</f>
+        <f t="shared" ref="D117:J117" si="46">COUNT(D109:E116)</f>
         <v>11</v>
       </c>
       <c r="F117">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>11</v>
       </c>
       <c r="H117">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
       <c r="J117">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>16</v>
       </c>
       <c r="M117">
@@ -11669,19 +11669,19 @@
         <v>10</v>
       </c>
       <c r="D118">
-        <f t="shared" ref="D118:J118" si="41">COUNTIF(D109:E116,"&gt;60")</f>
+        <f t="shared" ref="D118:J118" si="47">COUNTIF(D109:E116,"&gt;60")</f>
         <v>11</v>
       </c>
       <c r="F118">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="H118">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="J118">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>15</v>
       </c>
       <c r="M118">
@@ -11698,23 +11698,23 @@
         <v>118.42</v>
       </c>
       <c r="D119">
-        <f t="shared" ref="D119:J119" si="42">AVERAGE(D109:E116)</f>
+        <f t="shared" ref="D119:J119" si="48">AVERAGE(D109:E116)</f>
         <v>103.75636363636363</v>
       </c>
       <c r="F119">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>101.66545454545454</v>
       </c>
       <c r="H119">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>93.041250000000005</v>
       </c>
       <c r="J119">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>93.008124999999993</v>
       </c>
       <c r="M119">
-        <f t="shared" ref="M119:M121" si="43">AVERAGE(B119:J119)</f>
+        <f t="shared" ref="M119:M121" si="49">AVERAGE(B119:J119)</f>
         <v>101.97823863636364</v>
       </c>
     </row>
@@ -11727,23 +11727,23 @@
         <v>118.42</v>
       </c>
       <c r="D120">
-        <f t="shared" ref="D120:J120" si="44">AVERAGEIF(D109:E116,"&gt;60")</f>
+        <f t="shared" ref="D120:J120" si="50">AVERAGEIF(D109:E116,"&gt;60")</f>
         <v>103.75636363636363</v>
       </c>
       <c r="F120">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>101.66545454545454</v>
       </c>
       <c r="H120">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>93.041250000000005</v>
       </c>
       <c r="J120">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>95.61933333333333</v>
       </c>
       <c r="M120">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>102.5004803030303</v>
       </c>
     </row>
@@ -11756,23 +11756,23 @@
         <v>15.866523108594196</v>
       </c>
       <c r="D121">
-        <f t="shared" ref="D121:J121" si="45">STDEV(D109:E116)</f>
+        <f t="shared" ref="D121:J121" si="51">STDEV(D109:E116)</f>
         <v>27.42788846146464</v>
       </c>
       <c r="F121">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>16.628194949324197</v>
       </c>
       <c r="H121">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>14.598650072132376</v>
       </c>
       <c r="J121">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>24.020892078563694</v>
       </c>
       <c r="M121">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>19.708429734015819</v>
       </c>
     </row>
@@ -12114,19 +12114,19 @@
         <v>17</v>
       </c>
       <c r="E132">
-        <f t="shared" ref="E132:N132" si="46">COUNT(E125:G131)</f>
+        <f t="shared" ref="E132:N132" si="52">COUNT(E125:G131)</f>
         <v>14</v>
       </c>
       <c r="H132">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>16</v>
       </c>
       <c r="K132">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>16</v>
       </c>
       <c r="N132">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>16</v>
       </c>
       <c r="Q132">
@@ -12143,19 +12143,19 @@
         <v>14</v>
       </c>
       <c r="E133">
-        <f t="shared" ref="E133:N133" si="47">COUNTIF(E125:G131,"&gt;60")</f>
+        <f t="shared" ref="E133:N133" si="53">COUNTIF(E125:G131,"&gt;60")</f>
         <v>11</v>
       </c>
       <c r="H133">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>15</v>
       </c>
       <c r="K133">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>15</v>
       </c>
       <c r="N133">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>14</v>
       </c>
       <c r="Q133">
@@ -12172,23 +12172,23 @@
         <v>75.774705882352947</v>
       </c>
       <c r="E134">
-        <f t="shared" ref="E134:N134" si="48">AVERAGE(E125:G131)</f>
+        <f t="shared" ref="E134:N134" si="54">AVERAGE(E125:G131)</f>
         <v>94.852142857142852</v>
       </c>
       <c r="H134">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>88.681875000000005</v>
       </c>
       <c r="K134">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>75.671875</v>
       </c>
       <c r="N134">
-        <f t="shared" si="48"/>
+        <f t="shared" si="54"/>
         <v>77.668125000000003</v>
       </c>
       <c r="Q134">
-        <f t="shared" ref="Q134:Q136" si="49">AVERAGE(B134:N134)</f>
+        <f t="shared" ref="Q134:Q136" si="55">AVERAGE(B134:N134)</f>
         <v>82.529744747899173</v>
       </c>
     </row>
@@ -12201,23 +12201,23 @@
         <v>81.349999999999994</v>
       </c>
       <c r="E135">
-        <f t="shared" ref="E135:N135" si="50">AVERAGEIF(E125:G131,"&gt;60")</f>
+        <f t="shared" ref="E135:N135" si="56">AVERAGEIF(E125:G131,"&gt;60")</f>
         <v>105.93454545454546</v>
       </c>
       <c r="H135">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>91.010666666666665</v>
       </c>
       <c r="K135">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>77.490666666666669</v>
       </c>
       <c r="N135">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>81.53857142857143</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>87.464890043290055</v>
       </c>
     </row>
@@ -12230,23 +12230,23 @@
         <v>20.363311100373291</v>
       </c>
       <c r="E136">
-        <f t="shared" ref="E136:N136" si="51">STDEV(E125:G131)</f>
+        <f t="shared" ref="E136:N136" si="57">STDEV(E125:G131)</f>
         <v>37.693125914532395</v>
       </c>
       <c r="H136">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>18.921222024929165</v>
       </c>
       <c r="K136">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>11.873005920293799</v>
       </c>
       <c r="N136">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>17.024066188291592</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="49"/>
+        <f t="shared" si="55"/>
         <v>21.174946229684046</v>
       </c>
     </row>
@@ -12694,19 +12694,19 @@
         <v>18</v>
       </c>
       <c r="F148">
-        <f t="shared" ref="F148:R148" si="52">COUNT(F141:I147)</f>
+        <f t="shared" ref="F148:R148" si="58">COUNT(F141:I147)</f>
         <v>23</v>
       </c>
       <c r="J148">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>24</v>
       </c>
       <c r="N148">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>22</v>
       </c>
       <c r="R148">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>20</v>
       </c>
       <c r="V148">
@@ -12723,19 +12723,19 @@
         <v>16</v>
       </c>
       <c r="F149">
-        <f t="shared" ref="F149:R149" si="53">COUNTIF(F141:I147,"&gt;60")</f>
+        <f t="shared" ref="F149:R149" si="59">COUNTIF(F141:I147,"&gt;60")</f>
         <v>20</v>
       </c>
       <c r="J149">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>22</v>
       </c>
       <c r="N149">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>20</v>
       </c>
       <c r="R149">
-        <f t="shared" si="53"/>
+        <f t="shared" si="59"/>
         <v>16</v>
       </c>
       <c r="V149">
@@ -12752,23 +12752,23 @@
         <v>77.387222222222206</v>
       </c>
       <c r="F150">
-        <f t="shared" ref="F150:R150" si="54">AVERAGE(F141:I147)</f>
+        <f t="shared" ref="F150:R150" si="60">AVERAGE(F141:I147)</f>
         <v>77.792173913043484</v>
       </c>
       <c r="J150">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>87.36</v>
       </c>
       <c r="N150">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>70.676363636363646</v>
       </c>
       <c r="R150">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>78.041499999999999</v>
       </c>
       <c r="V150">
-        <f t="shared" ref="V150:V152" si="55">AVERAGE(B150:R150)</f>
+        <f t="shared" ref="V150:V152" si="61">AVERAGE(B150:R150)</f>
         <v>78.251451954325859</v>
       </c>
     </row>
@@ -12781,23 +12781,23 @@
         <v>79.953125</v>
       </c>
       <c r="F151">
-        <f t="shared" ref="F151:R151" si="56">AVERAGEIF(F141:I147,"&gt;60")</f>
+        <f t="shared" ref="F151:R151" si="62">AVERAGEIF(F141:I147,"&gt;60")</f>
         <v>81.223000000000013</v>
       </c>
       <c r="J151">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>90.248181818181806</v>
       </c>
       <c r="N151">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>72.822500000000005</v>
       </c>
       <c r="R151">
-        <f t="shared" si="56"/>
+        <f t="shared" si="62"/>
         <v>83.613749999999996</v>
       </c>
       <c r="V151">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>81.572111363636367</v>
       </c>
     </row>
@@ -12810,23 +12810,23 @@
         <v>11.981989329850713</v>
       </c>
       <c r="F152">
-        <f t="shared" ref="F152:R152" si="57">STDEV(F141:I147)</f>
+        <f t="shared" ref="F152:R152" si="63">STDEV(F141:I147)</f>
         <v>17.11180054192311</v>
       </c>
       <c r="J152">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>18.958596765170853</v>
       </c>
       <c r="N152">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>10.570841542142732</v>
       </c>
       <c r="R152">
-        <f t="shared" si="57"/>
+        <f t="shared" si="63"/>
         <v>17.746754566161666</v>
       </c>
       <c r="V152">
-        <f t="shared" si="55"/>
+        <f t="shared" si="61"/>
         <v>15.273996549049816</v>
       </c>
     </row>
@@ -13097,19 +13097,19 @@
         <v>10</v>
       </c>
       <c r="D163">
-        <f t="shared" ref="D163:J163" si="58">COUNT(D156:E162)</f>
+        <f t="shared" ref="D163:J163" si="64">COUNT(D156:E162)</f>
         <v>14</v>
       </c>
       <c r="F163">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>14</v>
       </c>
       <c r="H163">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>13</v>
       </c>
       <c r="J163">
-        <f t="shared" si="58"/>
+        <f t="shared" si="64"/>
         <v>12</v>
       </c>
       <c r="L163">
@@ -13126,19 +13126,19 @@
         <v>10</v>
       </c>
       <c r="D164">
-        <f t="shared" ref="D164:J164" si="59">COUNTIF(D156:E162,"&gt;60")</f>
+        <f t="shared" ref="D164:J164" si="65">COUNTIF(D156:E162,"&gt;60")</f>
         <v>14</v>
       </c>
       <c r="F164">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>14</v>
       </c>
       <c r="H164">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>12</v>
       </c>
       <c r="J164">
-        <f t="shared" si="59"/>
+        <f t="shared" si="65"/>
         <v>12</v>
       </c>
       <c r="L164">
@@ -13155,23 +13155,23 @@
         <v>96.494</v>
       </c>
       <c r="D165">
-        <f t="shared" ref="D165:J165" si="60">AVERAGE(D156:E162)</f>
+        <f t="shared" ref="D165:J165" si="66">AVERAGE(D156:E162)</f>
         <v>109.64571428571428</v>
       </c>
       <c r="F165">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>108.02785714285713</v>
       </c>
       <c r="H165">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>86.222307692307723</v>
       </c>
       <c r="J165">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>121.83749999999999</v>
       </c>
       <c r="L165">
-        <f t="shared" ref="L165:L167" si="61">AVERAGE(B165:J165)</f>
+        <f t="shared" ref="L165:L167" si="67">AVERAGE(B165:J165)</f>
         <v>104.44547582417582</v>
       </c>
     </row>
@@ -13184,23 +13184,23 @@
         <v>96.494</v>
       </c>
       <c r="D166">
-        <f t="shared" ref="D166:J166" si="62">AVERAGEIF(D156:E162,"&gt;60")</f>
+        <f t="shared" ref="D166:J166" si="68">AVERAGEIF(D156:E162,"&gt;60")</f>
         <v>109.64571428571428</v>
       </c>
       <c r="F166">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>108.02785714285713</v>
       </c>
       <c r="H166">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>89.045000000000016</v>
       </c>
       <c r="J166">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>121.83749999999999</v>
       </c>
       <c r="L166">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>105.01001428571428</v>
       </c>
     </row>
@@ -13213,23 +13213,23 @@
         <v>17.361041443415697</v>
       </c>
       <c r="D167">
-        <f t="shared" ref="D167:J167" si="63">STDEV(D156:E162)</f>
+        <f t="shared" ref="D167:J167" si="69">STDEV(D156:E162)</f>
         <v>17.734358965355618</v>
       </c>
       <c r="F167">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>14.676917606894145</v>
       </c>
       <c r="H167">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>17.700439803314687</v>
       </c>
       <c r="J167">
-        <f t="shared" si="63"/>
+        <f t="shared" si="69"/>
         <v>12.72475763298389</v>
       </c>
       <c r="L167">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>16.039503090392806</v>
       </c>
     </row>
@@ -13553,19 +13553,19 @@
         <v>16</v>
       </c>
       <c r="E178">
-        <f t="shared" ref="E178:N178" si="64">COUNT(E171:G177)</f>
+        <f t="shared" ref="E178:N178" si="70">COUNT(E171:G177)</f>
         <v>14</v>
       </c>
       <c r="H178">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>13</v>
       </c>
       <c r="K178">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>17</v>
       </c>
       <c r="N178">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>13</v>
       </c>
       <c r="Q178">
@@ -13582,19 +13582,19 @@
         <v>12</v>
       </c>
       <c r="E179">
-        <f t="shared" ref="E179:N179" si="65">COUNTIF(E171:G177,"&gt;60")</f>
+        <f t="shared" ref="E179:N179" si="71">COUNTIF(E171:G177,"&gt;60")</f>
         <v>13</v>
       </c>
       <c r="H179">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>12</v>
       </c>
       <c r="K179">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>15</v>
       </c>
       <c r="N179">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>11</v>
       </c>
       <c r="Q179">
@@ -13611,23 +13611,23 @@
         <v>80.127500000000012</v>
       </c>
       <c r="E180">
-        <f t="shared" ref="E180:N180" si="66">AVERAGE(E171:G177)</f>
+        <f t="shared" ref="E180:N180" si="72">AVERAGE(E171:G177)</f>
         <v>83.335714285714289</v>
       </c>
       <c r="H180">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>86.265384615384619</v>
       </c>
       <c r="K180">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>75.798823529411763</v>
       </c>
       <c r="N180">
-        <f t="shared" si="66"/>
+        <f t="shared" si="72"/>
         <v>79.09615384615384</v>
       </c>
       <c r="Q180">
-        <f t="shared" ref="Q180:Q182" si="67">AVERAGE(B180:N180)</f>
+        <f t="shared" ref="Q180:Q182" si="73">AVERAGE(B180:N180)</f>
         <v>80.924715255332899</v>
       </c>
     </row>
@@ -13640,23 +13640,23 @@
         <v>93.189166666666665</v>
       </c>
       <c r="E181">
-        <f t="shared" ref="E181:N181" si="68">AVERAGEIF(E171:G177,"&gt;60")</f>
+        <f t="shared" ref="E181:N181" si="74">AVERAGEIF(E171:G177,"&gt;60")</f>
         <v>85.973846153846154</v>
       </c>
       <c r="H181">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>88.790833333333339</v>
       </c>
       <c r="K181">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>78.725999999999985</v>
       </c>
       <c r="N181">
-        <f t="shared" si="68"/>
+        <f t="shared" si="74"/>
         <v>83.394545454545465</v>
       </c>
       <c r="Q181">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>86.01487832167831</v>
       </c>
     </row>
@@ -13669,23 +13669,23 @@
         <v>26.378621520718859</v>
       </c>
       <c r="E182">
-        <f t="shared" ref="E182:N182" si="69">STDEV(E171:G177)</f>
+        <f t="shared" ref="E182:N182" si="75">STDEV(E171:G177)</f>
         <v>15.134774890595834</v>
       </c>
       <c r="H182">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>19.458957070110696</v>
       </c>
       <c r="K182">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>10.397822417670598</v>
       </c>
       <c r="N182">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>24.953340637565127</v>
       </c>
       <c r="Q182">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>19.264703307332223</v>
       </c>
     </row>
@@ -14179,19 +14179,19 @@
         <v>28</v>
       </c>
       <c r="F196">
-        <f t="shared" ref="F196:R196" si="70">COUNT(F186:I195)</f>
+        <f t="shared" ref="F196:R196" si="76">COUNT(F186:I195)</f>
         <v>24</v>
       </c>
       <c r="J196">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>19</v>
       </c>
       <c r="N196">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>19</v>
       </c>
       <c r="R196">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>23</v>
       </c>
       <c r="V196">
@@ -14208,19 +14208,19 @@
         <v>21</v>
       </c>
       <c r="F197">
-        <f t="shared" ref="F197:R197" si="71">COUNTIF(F186:I195,"&gt;60")</f>
+        <f t="shared" ref="F197:R197" si="77">COUNTIF(F186:I195,"&gt;60")</f>
         <v>21</v>
       </c>
       <c r="J197">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>16</v>
       </c>
       <c r="N197">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>12</v>
       </c>
       <c r="R197">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>14</v>
       </c>
       <c r="V197">
@@ -14237,23 +14237,23 @@
         <v>72.206071428571406</v>
       </c>
       <c r="F198">
-        <f t="shared" ref="F198:R198" si="72">AVERAGE(F186:I195)</f>
+        <f t="shared" ref="F198:R198" si="78">AVERAGE(F186:I195)</f>
         <v>80.868333333333325</v>
       </c>
       <c r="J198">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>86.352631578947367</v>
       </c>
       <c r="N198">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>69.248947368421057</v>
       </c>
       <c r="R198">
-        <f t="shared" si="72"/>
+        <f t="shared" si="78"/>
         <v>63.333478260869569</v>
       </c>
       <c r="V198">
-        <f t="shared" ref="V198:V200" si="73">AVERAGE(B198:R198)</f>
+        <f t="shared" ref="V198:V200" si="79">AVERAGE(B198:R198)</f>
         <v>74.40189239402855</v>
       </c>
     </row>
@@ -14266,23 +14266,23 @@
         <v>79.021428571428558</v>
       </c>
       <c r="F199">
-        <f t="shared" ref="F199:R199" si="74">AVERAGEIF(F186:I195,"&gt;60")</f>
+        <f t="shared" ref="F199:R199" si="80">AVERAGEIF(F186:I195,"&gt;60")</f>
         <v>85.613809523809522</v>
       </c>
       <c r="J199">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>91.837500000000006</v>
       </c>
       <c r="N199">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>77.721666666666664</v>
       </c>
       <c r="R199">
-        <f t="shared" si="74"/>
+        <f t="shared" si="80"/>
         <v>69.625714285714295</v>
       </c>
       <c r="V199">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>80.76402380952382</v>
       </c>
     </row>
@@ -14295,23 +14295,23 @@
         <v>15.23505055706063</v>
       </c>
       <c r="F200">
-        <f t="shared" ref="F200:R200" si="75">STDEV(F186:I195)</f>
+        <f t="shared" ref="F200:R200" si="81">STDEV(F186:I195)</f>
         <v>20.93085524887297</v>
       </c>
       <c r="J200">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>18.364411489528454</v>
       </c>
       <c r="N200">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>15.850371497481893</v>
       </c>
       <c r="R200">
-        <f t="shared" si="75"/>
+        <f t="shared" si="81"/>
         <v>10.026060410339545</v>
       </c>
       <c r="V200">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>16.081349840656696</v>
       </c>
     </row>
@@ -14578,19 +14578,19 @@
         <v>12</v>
       </c>
       <c r="D212">
-        <f t="shared" ref="D212:J212" si="76">COUNT(D205:E211)</f>
+        <f t="shared" ref="D212:J212" si="82">COUNT(D205:E211)</f>
         <v>12</v>
       </c>
       <c r="F212">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>14</v>
       </c>
       <c r="H212">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>11</v>
       </c>
       <c r="J212">
-        <f t="shared" si="76"/>
+        <f t="shared" si="82"/>
         <v>12</v>
       </c>
       <c r="L212">
@@ -14607,19 +14607,19 @@
         <v>10</v>
       </c>
       <c r="D213">
-        <f t="shared" ref="D213:J213" si="77">COUNTIF(D205:E211,"&gt;60")</f>
+        <f t="shared" ref="D213:J213" si="83">COUNTIF(D205:E211,"&gt;60")</f>
         <v>12</v>
       </c>
       <c r="F213">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>13</v>
       </c>
       <c r="H213">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>11</v>
       </c>
       <c r="J213">
-        <f t="shared" si="77"/>
+        <f t="shared" si="83"/>
         <v>12</v>
       </c>
       <c r="L213">
@@ -14636,23 +14636,23 @@
         <v>80.202500000000001</v>
       </c>
       <c r="D214">
-        <f t="shared" ref="D214:J214" si="78">AVERAGE(D205:E211)</f>
+        <f t="shared" ref="D214:J214" si="84">AVERAGE(D205:E211)</f>
         <v>97.899166666666687</v>
       </c>
       <c r="F214">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>88.157142857142858</v>
       </c>
       <c r="H214">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>108.01636363636362</v>
       </c>
       <c r="J214">
-        <f t="shared" si="78"/>
+        <f t="shared" si="84"/>
         <v>87.374166666666653</v>
       </c>
       <c r="L214">
-        <f t="shared" ref="L214:L216" si="79">AVERAGE(B214:J214)</f>
+        <f t="shared" ref="L214:L216" si="85">AVERAGE(B214:J214)</f>
         <v>92.329867965367967</v>
       </c>
     </row>
@@ -14665,23 +14665,23 @@
         <v>85.306999999999988</v>
       </c>
       <c r="D215">
-        <f t="shared" ref="D215:J215" si="80">AVERAGEIF(D205:E211,"&gt;60")</f>
+        <f t="shared" ref="D215:J215" si="86">AVERAGEIF(D205:E211,"&gt;60")</f>
         <v>97.899166666666687</v>
       </c>
       <c r="F215">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>90.402307692307687</v>
       </c>
       <c r="H215">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>108.01636363636362</v>
       </c>
       <c r="J215">
-        <f t="shared" si="80"/>
+        <f t="shared" si="86"/>
         <v>87.374166666666653</v>
       </c>
       <c r="L215">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>93.799800932400927</v>
       </c>
     </row>
@@ -14694,23 +14694,23 @@
         <v>20.781835217323881</v>
       </c>
       <c r="D216">
-        <f t="shared" ref="D216:J216" si="81">STDEV(D205:E211)</f>
+        <f t="shared" ref="D216:J216" si="87">STDEV(D205:E211)</f>
         <v>13.125763325566387</v>
       </c>
       <c r="F216">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>18.092404878448683</v>
       </c>
       <c r="H216">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>17.077649295337686</v>
       </c>
       <c r="J216">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>11.897450802842718</v>
       </c>
       <c r="L216">
-        <f t="shared" si="79"/>
+        <f t="shared" si="85"/>
         <v>16.195020703903872</v>
       </c>
     </row>
@@ -14952,13 +14952,13 @@
       <c r="C226" s="40"/>
       <c r="D226" s="40"/>
       <c r="E226" s="40">
-        <f t="shared" ref="E226:H226" si="82">COUNT(E220:G225)</f>
+        <f t="shared" ref="E226:H226" si="88">COUNT(E220:G225)</f>
         <v>14</v>
       </c>
       <c r="F226" s="40"/>
       <c r="G226" s="40"/>
       <c r="H226" s="40">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>15</v>
       </c>
       <c r="I226" s="42"/>
@@ -14979,19 +14979,19 @@
       <c r="C227" s="40"/>
       <c r="D227" s="40"/>
       <c r="E227" s="40">
-        <f t="shared" ref="E227:H227" si="83">COUNTIF(E220:G225,"&gt;60")</f>
+        <f t="shared" ref="E227:H227" si="89">COUNTIF(E220:G225,"&gt;60")</f>
         <v>14</v>
       </c>
       <c r="F227" s="40"/>
       <c r="G227" s="40"/>
       <c r="H227" s="40">
-        <f t="shared" si="83"/>
+        <f t="shared" si="89"/>
         <v>14</v>
       </c>
       <c r="I227" s="42"/>
       <c r="J227" s="42"/>
       <c r="K227">
-        <f t="shared" ref="K227:K230" si="84">AVERAGE(B227:H227)</f>
+        <f t="shared" ref="K227:K230" si="90">AVERAGE(B227:H227)</f>
         <v>13.666666666666666</v>
       </c>
     </row>
@@ -15006,17 +15006,17 @@
       <c r="C228" s="40"/>
       <c r="D228" s="40"/>
       <c r="E228" s="40">
-        <f t="shared" ref="E228:H228" si="85">AVERAGE(E220:G225)</f>
+        <f t="shared" ref="E228:H228" si="91">AVERAGE(E220:G225)</f>
         <v>92.433571428571426</v>
       </c>
       <c r="F228" s="40"/>
       <c r="G228" s="40"/>
       <c r="H228" s="40">
-        <f t="shared" si="85"/>
+        <f t="shared" si="91"/>
         <v>80.601333333333329</v>
       </c>
       <c r="K228">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>87.149583638583636</v>
       </c>
     </row>
@@ -15031,17 +15031,17 @@
       <c r="C229" s="40"/>
       <c r="D229" s="40"/>
       <c r="E229" s="40">
-        <f t="shared" ref="E229:H229" si="86">AVERAGEIF(E220:G225,"&gt;60")</f>
+        <f t="shared" ref="E229:H229" si="92">AVERAGEIF(E220:G225,"&gt;60")</f>
         <v>92.433571428571426</v>
       </c>
       <c r="F229" s="40"/>
       <c r="G229" s="40"/>
       <c r="H229" s="40">
-        <f t="shared" si="86"/>
+        <f t="shared" si="92"/>
         <v>82.299285714285716</v>
       </c>
       <c r="K229">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>87.715567765567769</v>
       </c>
     </row>
@@ -15054,15 +15054,15 @@
         <v>7.8699645683886237</v>
       </c>
       <c r="E230">
-        <f t="shared" ref="E230:H230" si="87">STDEV(E220:G225)</f>
+        <f t="shared" ref="E230:H230" si="93">STDEV(E220:G225)</f>
         <v>11.23050352124341</v>
       </c>
       <c r="H230">
-        <f t="shared" si="87"/>
+        <f t="shared" si="93"/>
         <v>15.052529387195431</v>
       </c>
       <c r="K230">
-        <f t="shared" si="84"/>
+        <f t="shared" si="90"/>
         <v>11.384332492275822</v>
       </c>
     </row>
@@ -15450,15 +15450,15 @@
         <v>20</v>
       </c>
       <c r="J240">
-        <f t="shared" ref="J240:R240" si="88">COUNT(J234:M239)</f>
+        <f t="shared" ref="J240:R240" si="94">COUNT(J234:M239)</f>
         <v>20</v>
       </c>
       <c r="N240">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>21</v>
       </c>
       <c r="R240">
-        <f t="shared" si="88"/>
+        <f t="shared" si="94"/>
         <v>21</v>
       </c>
       <c r="V240">
@@ -15475,15 +15475,15 @@
         <v>19</v>
       </c>
       <c r="J241">
-        <f t="shared" ref="J241:R241" si="89">COUNTIF(J234:M239,"&gt;60")</f>
+        <f t="shared" ref="J241:R241" si="95">COUNTIF(J234:M239,"&gt;60")</f>
         <v>18</v>
       </c>
       <c r="N241">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>19</v>
       </c>
       <c r="R241">
-        <f t="shared" si="89"/>
+        <f t="shared" si="95"/>
         <v>20</v>
       </c>
       <c r="V241">
@@ -15500,19 +15500,19 @@
         <v>81.890999999999991</v>
       </c>
       <c r="J242">
-        <f t="shared" ref="J242:R242" si="90">AVERAGE(J234:M239)</f>
+        <f t="shared" ref="J242:R242" si="96">AVERAGE(J234:M239)</f>
         <v>81.468000000000004</v>
       </c>
       <c r="N242">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>81.22</v>
       </c>
       <c r="R242">
-        <f t="shared" si="90"/>
+        <f t="shared" si="96"/>
         <v>84.01333333333335</v>
       </c>
       <c r="V242">
-        <f t="shared" ref="V242:V244" si="91">AVERAGE(B242:R242)</f>
+        <f t="shared" ref="V242:V244" si="97">AVERAGE(B242:R242)</f>
         <v>82.148083333333332</v>
       </c>
     </row>
@@ -15525,19 +15525,19 @@
         <v>83.892631578947359</v>
       </c>
       <c r="J243">
-        <f t="shared" ref="J243:R243" si="92">AVERAGEIF(J234:M239,"&gt;60")</f>
+        <f t="shared" ref="J243:R243" si="98">AVERAGEIF(J234:M239,"&gt;60")</f>
         <v>84.725555555555559</v>
       </c>
       <c r="N243">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>84.140526315789472</v>
       </c>
       <c r="R243">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>85.722000000000008</v>
       </c>
       <c r="V243">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>84.620178362573114</v>
       </c>
     </row>
@@ -15550,19 +15550,19 @@
         <v>12.971395615373389</v>
       </c>
       <c r="J244">
-        <f t="shared" ref="J244:R244" si="93">STDEV(J234:M239)</f>
+        <f t="shared" ref="J244:R244" si="99">STDEV(J234:M239)</f>
         <v>13.34964560933113</v>
       </c>
       <c r="N244">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>13.075162714092729</v>
       </c>
       <c r="R244">
-        <f t="shared" si="93"/>
+        <f t="shared" si="99"/>
         <v>15.516365661240721</v>
       </c>
       <c r="V244">
-        <f t="shared" si="91"/>
+        <f t="shared" si="97"/>
         <v>13.728142400009492</v>
       </c>
     </row>
@@ -15819,19 +15819,19 @@
         <v>12</v>
       </c>
       <c r="D255">
-        <f t="shared" ref="D255:J255" si="94">COUNT(D248:E254)</f>
+        <f t="shared" ref="D255:J255" si="100">COUNT(D248:E254)</f>
         <v>12</v>
       </c>
       <c r="F255">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>10</v>
       </c>
       <c r="H255">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>11</v>
       </c>
       <c r="J255">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>12</v>
       </c>
       <c r="L255">
@@ -15848,19 +15848,19 @@
         <v>11</v>
       </c>
       <c r="D256">
-        <f t="shared" ref="D256:J256" si="95">COUNTIF(D248:E254,"&gt;60")</f>
+        <f t="shared" ref="D256:J256" si="101">COUNTIF(D248:E254,"&gt;60")</f>
         <v>12</v>
       </c>
       <c r="F256">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>10</v>
       </c>
       <c r="H256">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>11</v>
       </c>
       <c r="J256">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>10</v>
       </c>
       <c r="L256">
@@ -15877,23 +15877,23 @@
         <v>80.385833333333323</v>
       </c>
       <c r="D257">
-        <f t="shared" ref="D257:J257" si="96">AVERAGE(D248:E254)</f>
+        <f t="shared" ref="D257:J257" si="102">AVERAGE(D248:E254)</f>
         <v>87.159999999999982</v>
       </c>
       <c r="F257">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>92.155000000000001</v>
       </c>
       <c r="H257">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>94.906363636363622</v>
       </c>
       <c r="J257">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>72.724166666666662</v>
       </c>
       <c r="L257">
-        <f t="shared" ref="L257:L259" si="97">AVERAGE(B257:J257)</f>
+        <f t="shared" ref="L257:L259" si="103">AVERAGE(B257:J257)</f>
         <v>85.46627272727271</v>
       </c>
     </row>
@@ -15906,23 +15906,23 @@
         <v>82.406363636363622</v>
       </c>
       <c r="D258">
-        <f t="shared" ref="D258:J258" si="98">AVERAGEIF(D248:E254,"&gt;60")</f>
+        <f t="shared" ref="D258:J258" si="104">AVERAGEIF(D248:E254,"&gt;60")</f>
         <v>87.159999999999982</v>
       </c>
       <c r="F258">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>92.155000000000001</v>
       </c>
       <c r="H258">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>94.906363636363622</v>
       </c>
       <c r="J258">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>76.942999999999998</v>
       </c>
       <c r="L258">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>86.714145454545445</v>
       </c>
     </row>
@@ -15935,23 +15935,23 @@
         <v>16.078148049354787</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:J259" si="99">STDEV(D248:E254)</f>
+        <f t="shared" ref="D259:J259" si="105">STDEV(D248:E254)</f>
         <v>14.110528628716217</v>
       </c>
       <c r="F259">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>9.2227138088525784</v>
       </c>
       <c r="H259">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>30.450966576687666</v>
       </c>
       <c r="J259">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>18.219479814115715</v>
       </c>
       <c r="L259">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>17.616367375545391</v>
       </c>
     </row>
@@ -16303,19 +16303,19 @@
         <v>17</v>
       </c>
       <c r="E270">
-        <f t="shared" ref="E270:N270" si="100">COUNT(E263:G269)</f>
+        <f t="shared" ref="E270:N270" si="106">COUNT(E263:G269)</f>
         <v>16</v>
       </c>
       <c r="H270">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>16</v>
       </c>
       <c r="K270">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>17</v>
       </c>
       <c r="N270">
-        <f t="shared" si="100"/>
+        <f t="shared" si="106"/>
         <v>16</v>
       </c>
       <c r="Q270">
@@ -16332,19 +16332,19 @@
         <v>17</v>
       </c>
       <c r="E271">
-        <f t="shared" ref="E271:N271" si="101">COUNTIF(E263:G269,"&gt;60")</f>
+        <f t="shared" ref="E271:N271" si="107">COUNTIF(E263:G269,"&gt;60")</f>
         <v>16</v>
       </c>
       <c r="H271">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>15</v>
       </c>
       <c r="K271">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>16</v>
       </c>
       <c r="N271">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>16</v>
       </c>
       <c r="Q271">
@@ -16361,23 +16361,23 @@
         <v>85.095882352941175</v>
       </c>
       <c r="E272">
-        <f t="shared" ref="E272:N272" si="102">AVERAGE(E263:G269)</f>
+        <f t="shared" ref="E272:N272" si="108">AVERAGE(E263:G269)</f>
         <v>100.378125</v>
       </c>
       <c r="H272">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>85.761875000000003</v>
       </c>
       <c r="K272">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>85.531764705882367</v>
       </c>
       <c r="N272">
-        <f t="shared" si="102"/>
+        <f t="shared" si="108"/>
         <v>104.72124999999998</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q274" si="103">AVERAGE(B272:N272)</f>
+        <f t="shared" ref="Q272:Q274" si="109">AVERAGE(B272:N272)</f>
         <v>92.297779411764708</v>
       </c>
     </row>
@@ -16390,23 +16390,23 @@
         <v>85.095882352941175</v>
       </c>
       <c r="E273">
-        <f t="shared" ref="E273:N273" si="104">AVERAGEIF(E263:G269,"&gt;60")</f>
+        <f t="shared" ref="E273:N273" si="110">AVERAGEIF(E263:G269,"&gt;60")</f>
         <v>100.378125</v>
       </c>
       <c r="H273">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>87.64733333333335</v>
       </c>
       <c r="K273">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>87.285000000000011</v>
       </c>
       <c r="N273">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>104.72124999999998</v>
       </c>
       <c r="Q273">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>93.025518137254906</v>
       </c>
     </row>
@@ -16419,23 +16419,23 @@
         <v>13.921302946753778</v>
       </c>
       <c r="E274">
-        <f t="shared" ref="E274:N274" si="105">STDEV(E263:G269)</f>
+        <f t="shared" ref="E274:N274" si="111">STDEV(E263:G269)</f>
         <v>18.580998616418167</v>
       </c>
       <c r="H274">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>14.836949020940867</v>
       </c>
       <c r="K274">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>12.357914587064247</v>
       </c>
       <c r="N274">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>13.160784107846146</v>
       </c>
       <c r="Q274">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>14.571589855804641</v>
       </c>
     </row>
@@ -16853,19 +16853,19 @@
         <v>19</v>
       </c>
       <c r="F284">
-        <f t="shared" ref="F284:R284" si="106">COUNT(F278:I283)</f>
+        <f t="shared" ref="F284:R284" si="112">COUNT(F278:I283)</f>
         <v>20</v>
       </c>
       <c r="J284">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>19</v>
       </c>
       <c r="N284">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>20</v>
       </c>
       <c r="R284">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>21</v>
       </c>
       <c r="V284">
@@ -16882,19 +16882,19 @@
         <v>19</v>
       </c>
       <c r="F285">
-        <f t="shared" ref="F285:R285" si="107">COUNTIF(F278:I283,"&gt;60")</f>
+        <f t="shared" ref="F285:R285" si="113">COUNTIF(F278:I283,"&gt;60")</f>
         <v>20</v>
       </c>
       <c r="J285">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>18</v>
       </c>
       <c r="N285">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>19</v>
       </c>
       <c r="R285">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>21</v>
       </c>
       <c r="V285">
@@ -16911,23 +16911,23 @@
         <v>90.03</v>
       </c>
       <c r="F286">
-        <f t="shared" ref="F286:R286" si="108">AVERAGE(F278:I283)</f>
+        <f t="shared" ref="F286:R286" si="114">AVERAGE(F278:I283)</f>
         <v>83.809999999999988</v>
       </c>
       <c r="J286">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>85.217894736842126</v>
       </c>
       <c r="N286">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>83.898499999999999</v>
       </c>
       <c r="R286">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>83.761428571428596</v>
       </c>
       <c r="V286">
-        <f t="shared" ref="V286:V288" si="109">AVERAGE(B286:R286)</f>
+        <f t="shared" ref="V286:V288" si="115">AVERAGE(B286:R286)</f>
         <v>85.343564661654142</v>
       </c>
     </row>
@@ -16940,23 +16940,23 @@
         <v>90.03</v>
       </c>
       <c r="F287">
-        <f t="shared" ref="F287:R287" si="110">AVERAGEIF(F278:I283,"&gt;60")</f>
+        <f t="shared" ref="F287:R287" si="116">AVERAGEIF(F278:I283,"&gt;60")</f>
         <v>83.809999999999988</v>
       </c>
       <c r="J287">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>86.629444444444459</v>
       </c>
       <c r="N287">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>85.765789473684208</v>
       </c>
       <c r="R287">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>83.761428571428596</v>
       </c>
       <c r="V287">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>85.999332497911453</v>
       </c>
     </row>
@@ -16969,23 +16969,23 @@
         <v>11.327721649907291</v>
       </c>
       <c r="F288">
-        <f t="shared" ref="F288:R288" si="111">STDEV(F278:I283)</f>
+        <f t="shared" ref="F288:R288" si="117">STDEV(F278:I283)</f>
         <v>8.1020725093872379</v>
       </c>
       <c r="J288">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>11.407867450407942</v>
       </c>
       <c r="N288">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>9.9208447618876274</v>
       </c>
       <c r="R288">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>9.0419628874011444</v>
       </c>
       <c r="V288">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>9.9600938517982485</v>
       </c>
     </row>
@@ -17254,19 +17254,19 @@
         <v>12</v>
       </c>
       <c r="D302">
-        <f t="shared" ref="D302:J302" si="112">COUNT(D294:E301)</f>
+        <f t="shared" ref="D302:J302" si="118">COUNT(D294:E301)</f>
         <v>10</v>
       </c>
       <c r="F302">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>11</v>
       </c>
       <c r="H302">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>13</v>
       </c>
       <c r="J302">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>15</v>
       </c>
       <c r="L302">
@@ -17283,19 +17283,19 @@
         <v>12</v>
       </c>
       <c r="D303">
-        <f t="shared" ref="D303:J303" si="113">COUNTIF(D294:E301,"&gt;60")</f>
+        <f t="shared" ref="D303:J303" si="119">COUNTIF(D294:E301,"&gt;60")</f>
         <v>9</v>
       </c>
       <c r="F303">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>11</v>
       </c>
       <c r="H303">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>13</v>
       </c>
       <c r="J303">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>15</v>
       </c>
       <c r="L303">
@@ -17312,23 +17312,23 @@
         <v>108.74</v>
       </c>
       <c r="D304">
-        <f t="shared" ref="D304:J304" si="114">AVERAGE(D294:E301)</f>
+        <f t="shared" ref="D304:J304" si="120">AVERAGE(D294:E301)</f>
         <v>75.966000000000008</v>
       </c>
       <c r="F304">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>115.39090909090909</v>
       </c>
       <c r="H304">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>98.200769230769239</v>
       </c>
       <c r="J304">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>86.173333333333332</v>
       </c>
       <c r="L304">
-        <f t="shared" ref="L304:L306" si="115">AVERAGE(B304:J304)</f>
+        <f t="shared" ref="L304:L306" si="121">AVERAGE(B304:J304)</f>
         <v>96.894202331002333</v>
       </c>
     </row>
@@ -17341,23 +17341,23 @@
         <v>108.74</v>
       </c>
       <c r="D305">
-        <f t="shared" ref="D305:J305" si="116">AVERAGEIF(D294:E301,"&gt;60")</f>
+        <f t="shared" ref="D305:J305" si="122">AVERAGEIF(D294:E301,"&gt;60")</f>
         <v>79.044444444444451</v>
       </c>
       <c r="F305">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>115.39090909090909</v>
       </c>
       <c r="H305">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>98.200769230769239</v>
       </c>
       <c r="J305">
-        <f t="shared" si="116"/>
+        <f t="shared" si="122"/>
         <v>86.173333333333332</v>
       </c>
       <c r="L305">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>97.509891219891216</v>
       </c>
     </row>
@@ -17370,23 +17370,23 @@
         <v>30.374816422939475</v>
       </c>
       <c r="D306">
-        <f t="shared" ref="D306:J306" si="117">STDEV(D294:E300)</f>
+        <f t="shared" ref="D306:J306" si="123">STDEV(D294:E300)</f>
         <v>14.500995521380972</v>
       </c>
       <c r="F306">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>16.167004332618596</v>
       </c>
       <c r="H306">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>16.229412323278154</v>
       </c>
       <c r="J306">
-        <f t="shared" si="117"/>
+        <f t="shared" si="123"/>
         <v>20.91737203252962</v>
       </c>
       <c r="L306">
-        <f t="shared" si="115"/>
+        <f t="shared" si="121"/>
         <v>19.637920126549364</v>
       </c>
     </row>
@@ -17749,19 +17749,19 @@
         <v>20</v>
       </c>
       <c r="E317">
-        <f t="shared" ref="E317:N317" si="118">COUNT(E310:G316)</f>
+        <f t="shared" ref="E317:N317" si="124">COUNT(E310:G316)</f>
         <v>15</v>
       </c>
       <c r="H317">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>19</v>
       </c>
       <c r="K317">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>18</v>
       </c>
       <c r="N317">
-        <f t="shared" si="118"/>
+        <f t="shared" si="124"/>
         <v>14</v>
       </c>
       <c r="Q317">
@@ -17778,19 +17778,19 @@
         <v>18</v>
       </c>
       <c r="E318">
-        <f t="shared" ref="E318:N318" si="119">COUNTIF(E310:G316,"&gt;60")</f>
+        <f t="shared" ref="E318:N318" si="125">COUNTIF(E310:G316,"&gt;60")</f>
         <v>13</v>
       </c>
       <c r="H318">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>18</v>
       </c>
       <c r="K318">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>18</v>
       </c>
       <c r="N318">
-        <f t="shared" si="119"/>
+        <f t="shared" si="125"/>
         <v>11</v>
       </c>
       <c r="Q318">
@@ -17807,23 +17807,23 @@
         <v>83.408000000000015</v>
       </c>
       <c r="E319">
-        <f t="shared" ref="E319:N319" si="120">AVERAGE(E310:G316)</f>
+        <f t="shared" ref="E319:N319" si="126">AVERAGE(E310:G316)</f>
         <v>91.325999999999993</v>
       </c>
       <c r="H319">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>88.1657894736842</v>
       </c>
       <c r="K319">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>85.496666666666655</v>
       </c>
       <c r="N319">
-        <f t="shared" si="120"/>
+        <f t="shared" si="126"/>
         <v>85.65428571428572</v>
       </c>
       <c r="Q319">
-        <f t="shared" ref="Q319:Q321" si="121">AVERAGE(B319:N319)</f>
+        <f t="shared" ref="Q319:Q321" si="127">AVERAGE(B319:N319)</f>
         <v>86.810148370927323</v>
       </c>
     </row>
@@ -17836,23 +17836,23 @@
         <v>87.297777777777796</v>
       </c>
       <c r="E320">
-        <f t="shared" ref="E320:N320" si="122">AVERAGEIF(E310:G316,"&gt;60")</f>
+        <f t="shared" ref="E320:N320" si="128">AVERAGEIF(E310:G316,"&gt;60")</f>
         <v>96.403076923076924</v>
       </c>
       <c r="H320">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>89.793333333333337</v>
       </c>
       <c r="K320">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>85.496666666666655</v>
       </c>
       <c r="N320">
-        <f t="shared" si="122"/>
+        <f t="shared" si="128"/>
         <v>93.557272727272732</v>
       </c>
       <c r="Q320">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>90.509625485625492</v>
       </c>
     </row>
@@ -17865,23 +17865,23 @@
         <v>17.842945414158176</v>
       </c>
       <c r="E321">
-        <f t="shared" ref="E321:N321" si="123">STDEV(E310:G316)</f>
+        <f t="shared" ref="E321:N321" si="129">STDEV(E310:G316)</f>
         <v>23.360478774447902</v>
       </c>
       <c r="H321">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>14.461772718980216</v>
       </c>
       <c r="K321">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>14.970347160892707</v>
       </c>
       <c r="N321">
-        <f t="shared" si="123"/>
+        <f t="shared" si="129"/>
         <v>26.439001119932239</v>
       </c>
       <c r="Q321">
-        <f t="shared" si="121"/>
+        <f t="shared" si="127"/>
         <v>19.414909037682246</v>
       </c>
     </row>
@@ -18295,19 +18295,19 @@
         <v>17</v>
       </c>
       <c r="F332">
-        <f t="shared" ref="F332:R332" si="124">COUNT(F325:I331)</f>
+        <f t="shared" ref="F332:R332" si="130">COUNT(F325:I331)</f>
         <v>18</v>
       </c>
       <c r="J332">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>20</v>
       </c>
       <c r="N332">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>19</v>
       </c>
       <c r="R332">
-        <f t="shared" si="124"/>
+        <f t="shared" si="130"/>
         <v>18</v>
       </c>
       <c r="V332">
@@ -18324,19 +18324,19 @@
         <v>16</v>
       </c>
       <c r="F333">
-        <f t="shared" ref="F333:R333" si="125">COUNTIF(F325:I331,"&gt;60")</f>
+        <f t="shared" ref="F333:R333" si="131">COUNTIF(F325:I331,"&gt;60")</f>
         <v>15</v>
       </c>
       <c r="J333">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>20</v>
       </c>
       <c r="N333">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>19</v>
       </c>
       <c r="R333">
-        <f t="shared" si="125"/>
+        <f t="shared" si="131"/>
         <v>17</v>
       </c>
       <c r="V333">
@@ -18353,23 +18353,23 @@
         <v>90.828235294117661</v>
       </c>
       <c r="F334">
-        <f t="shared" ref="F334:N334" si="126">AVERAGE(F325:I331)</f>
+        <f t="shared" ref="F334:N334" si="132">AVERAGE(F325:I331)</f>
         <v>83.873888888888885</v>
       </c>
       <c r="J334">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>99.911499999999975</v>
       </c>
       <c r="N334">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>89.151578947368435</v>
       </c>
       <c r="R334">
-        <f t="shared" ref="R334" si="127">AVERAGE(R325:U331)</f>
+        <f t="shared" ref="R334" si="133">AVERAGE(R325:U331)</f>
         <v>82.647222222222226</v>
       </c>
       <c r="V334">
-        <f t="shared" ref="V334:V336" si="128">AVERAGE(B334:R334)</f>
+        <f t="shared" ref="V334:V336" si="134">AVERAGE(B334:R334)</f>
         <v>89.282485070519442</v>
       </c>
     </row>
@@ -18382,23 +18382,23 @@
         <v>93.371875000000003</v>
       </c>
       <c r="F335">
-        <f t="shared" ref="F335:R335" si="129">AVERAGEIF(F325:I331,"&gt;60")</f>
+        <f t="shared" ref="F335:R335" si="135">AVERAGEIF(F325:I331,"&gt;60")</f>
         <v>91.602666666666664</v>
       </c>
       <c r="J335">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>99.911499999999975</v>
       </c>
       <c r="N335">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>89.151578947368435</v>
       </c>
       <c r="R335">
-        <f t="shared" si="129"/>
+        <f t="shared" si="135"/>
         <v>84.287058823529421</v>
       </c>
       <c r="V335">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>91.664935887512897</v>
       </c>
     </row>
@@ -18411,23 +18411,23 @@
         <v>16.836347672258839</v>
       </c>
       <c r="F336">
-        <f t="shared" ref="F336:R336" si="130">STDEV(F325:I330)</f>
+        <f t="shared" ref="F336:R336" si="136">STDEV(F325:I330)</f>
         <v>28.662643065780593</v>
       </c>
       <c r="J336">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>13.822654449250857</v>
       </c>
       <c r="N336">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>12.331734699617556</v>
       </c>
       <c r="R336">
-        <f t="shared" si="130"/>
+        <f t="shared" si="136"/>
         <v>20.774360556607927</v>
       </c>
       <c r="V336">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>18.485548088703155</v>
       </c>
     </row>
@@ -18690,19 +18690,19 @@
         <v>12</v>
       </c>
       <c r="D347">
-        <f t="shared" ref="D347:J347" si="131">COUNT(D340:E346)</f>
+        <f t="shared" ref="D347:J347" si="137">COUNT(D340:E346)</f>
         <v>12</v>
       </c>
       <c r="F347">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>12</v>
       </c>
       <c r="H347">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>13</v>
       </c>
       <c r="J347">
-        <f t="shared" si="131"/>
+        <f t="shared" si="137"/>
         <v>12</v>
       </c>
       <c r="L347">
@@ -18719,19 +18719,19 @@
         <v>12</v>
       </c>
       <c r="D348">
-        <f t="shared" ref="D348:J348" si="132">COUNTIF(D340:E346,"&gt;60")</f>
+        <f t="shared" ref="D348:J348" si="138">COUNTIF(D340:E346,"&gt;60")</f>
         <v>12</v>
       </c>
       <c r="F348">
-        <f t="shared" si="132"/>
+        <f t="shared" si="138"/>
         <v>12</v>
       </c>
       <c r="H348">
-        <f t="shared" si="132"/>
+        <f t="shared" si="138"/>
         <v>13</v>
       </c>
       <c r="J348">
-        <f t="shared" si="132"/>
+        <f t="shared" si="138"/>
         <v>11</v>
       </c>
       <c r="L348">
@@ -18748,23 +18748,23 @@
         <v>124.84333333333336</v>
       </c>
       <c r="D349">
-        <f t="shared" ref="D349:J349" si="133">AVERAGE(D340:E346)</f>
+        <f t="shared" ref="D349:J349" si="139">AVERAGE(D340:E346)</f>
         <v>98.730833333333337</v>
       </c>
       <c r="F349">
-        <f t="shared" si="133"/>
+        <f t="shared" si="139"/>
         <v>93.608333333333334</v>
       </c>
       <c r="H349">
-        <f t="shared" si="133"/>
+        <f t="shared" si="139"/>
         <v>96.213076923076926</v>
       </c>
       <c r="J349">
-        <f t="shared" si="133"/>
+        <f t="shared" si="139"/>
         <v>114.60083333333334</v>
       </c>
       <c r="L349">
-        <f t="shared" ref="L349:L351" si="134">AVERAGE(B349:J349)</f>
+        <f t="shared" ref="L349:L351" si="140">AVERAGE(B349:J349)</f>
         <v>105.59928205128206</v>
       </c>
     </row>
@@ -18777,23 +18777,23 @@
         <v>124.84333333333336</v>
       </c>
       <c r="D350">
-        <f t="shared" ref="D350:J350" si="135">AVERAGEIF(D340:E346,"&gt;60")</f>
+        <f t="shared" ref="D350:J350" si="141">AVERAGEIF(D340:E346,"&gt;60")</f>
         <v>98.730833333333337</v>
       </c>
       <c r="F350">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>93.608333333333334</v>
       </c>
       <c r="H350">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>96.213076923076926</v>
       </c>
       <c r="J350">
-        <f t="shared" si="135"/>
+        <f t="shared" si="141"/>
         <v>120.17636363636365</v>
       </c>
       <c r="L350">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>106.71438811188814</v>
       </c>
     </row>
@@ -18806,23 +18806,23 @@
         <v>19.177021445342884</v>
       </c>
       <c r="D351">
-        <f t="shared" ref="D351:J351" si="136">STDEV(D340:E346)</f>
+        <f t="shared" ref="D351:J351" si="142">STDEV(D340:E346)</f>
         <v>18.915759883485961</v>
       </c>
       <c r="F351">
-        <f t="shared" si="136"/>
+        <f t="shared" si="142"/>
         <v>13.588444846020183</v>
       </c>
       <c r="H351">
-        <f t="shared" si="136"/>
+        <f t="shared" si="142"/>
         <v>13.687601070929942</v>
       </c>
       <c r="J351">
-        <f t="shared" si="136"/>
+        <f t="shared" si="142"/>
         <v>33.08072370823534</v>
       </c>
       <c r="L351">
-        <f t="shared" si="134"/>
+        <f t="shared" si="140"/>
         <v>19.689910190802863</v>
       </c>
     </row>
@@ -19147,19 +19147,19 @@
         <v>15</v>
       </c>
       <c r="E361">
-        <f t="shared" ref="E361:N361" si="137">COUNT(E354:G360)</f>
+        <f t="shared" ref="E361:N361" si="143">COUNT(E354:G360)</f>
         <v>14</v>
       </c>
       <c r="H361">
-        <f t="shared" si="137"/>
+        <f t="shared" si="143"/>
         <v>16</v>
       </c>
       <c r="K361">
-        <f t="shared" si="137"/>
+        <f t="shared" si="143"/>
         <v>13</v>
       </c>
       <c r="N361">
-        <f t="shared" si="137"/>
+        <f t="shared" si="143"/>
         <v>12</v>
       </c>
       <c r="Q361">
@@ -19176,19 +19176,19 @@
         <v>15</v>
       </c>
       <c r="E362">
-        <f t="shared" ref="E362:N362" si="138">COUNTIF(E354:G360,"&gt;60")</f>
+        <f t="shared" ref="E362:N362" si="144">COUNTIF(E354:G360,"&gt;60")</f>
         <v>13</v>
       </c>
       <c r="H362">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>14</v>
       </c>
       <c r="K362">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>13</v>
       </c>
       <c r="N362">
-        <f t="shared" si="138"/>
+        <f t="shared" si="144"/>
         <v>11</v>
       </c>
       <c r="Q362">
@@ -19205,23 +19205,23 @@
         <v>78.470666666666659</v>
       </c>
       <c r="E363">
-        <f t="shared" ref="E363:N363" si="139">AVERAGE(E354:G360)</f>
+        <f t="shared" ref="E363:N363" si="145">AVERAGE(E354:G360)</f>
         <v>97.284999999999982</v>
       </c>
       <c r="H363">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>85.723749999999981</v>
       </c>
       <c r="K363">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>122.63230769230769</v>
       </c>
       <c r="N363">
-        <f t="shared" si="139"/>
+        <f t="shared" si="145"/>
         <v>80.855000000000004</v>
       </c>
       <c r="Q363">
-        <f t="shared" ref="Q363:Q365" si="140">AVERAGE(B363:N363)</f>
+        <f t="shared" ref="Q363:Q365" si="146">AVERAGE(B363:N363)</f>
         <v>92.993344871794861</v>
       </c>
     </row>
@@ -19234,23 +19234,23 @@
         <v>78.470666666666659</v>
       </c>
       <c r="E364">
-        <f t="shared" ref="E364:N364" si="141">AVERAGEIF(E354:G360,"&gt;60")</f>
+        <f t="shared" ref="E364:N364" si="147">AVERAGEIF(E354:G360,"&gt;60")</f>
         <v>100.91923076923075</v>
       </c>
       <c r="H364">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>89.59071428571427</v>
       </c>
       <c r="K364">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>122.63230769230769</v>
       </c>
       <c r="N364">
-        <f t="shared" si="141"/>
+        <f t="shared" si="147"/>
         <v>83.092727272727288</v>
       </c>
       <c r="Q364">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>94.941129337329329</v>
       </c>
     </row>
@@ -19263,23 +19263,23 @@
         <v>8.0938384560343781</v>
       </c>
       <c r="E365">
-        <f t="shared" ref="E365:N365" si="142">STDEV(E354:G360)</f>
+        <f t="shared" ref="E365:N365" si="148">STDEV(E354:G360)</f>
         <v>37.57703978802445</v>
       </c>
       <c r="H365">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>18.39119494939553</v>
       </c>
       <c r="K365">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>24.209542248820757</v>
       </c>
       <c r="N365">
-        <f t="shared" si="142"/>
+        <f t="shared" si="148"/>
         <v>10.547342189989109</v>
       </c>
       <c r="Q365">
-        <f t="shared" si="140"/>
+        <f t="shared" si="146"/>
         <v>19.763791526452842</v>
       </c>
     </row>
@@ -19718,19 +19718,19 @@
         <v>21</v>
       </c>
       <c r="F376">
-        <f t="shared" ref="F376:R376" si="143">COUNT(F369:I375)</f>
+        <f t="shared" ref="F376:R376" si="149">COUNT(F369:I375)</f>
         <v>21</v>
       </c>
       <c r="J376">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>21</v>
       </c>
       <c r="N376">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>19</v>
       </c>
       <c r="R376">
-        <f t="shared" si="143"/>
+        <f t="shared" si="149"/>
         <v>23</v>
       </c>
       <c r="V376">
@@ -19747,19 +19747,19 @@
         <v>18</v>
       </c>
       <c r="F377">
-        <f t="shared" ref="F377:R377" si="144">COUNTIF(F369:I375,"&gt;60")</f>
+        <f t="shared" ref="F377:R377" si="150">COUNTIF(F369:I375,"&gt;60")</f>
         <v>19</v>
       </c>
       <c r="J377">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>18</v>
       </c>
       <c r="N377">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>17</v>
       </c>
       <c r="R377">
-        <f t="shared" si="144"/>
+        <f t="shared" si="150"/>
         <v>20</v>
       </c>
       <c r="V377">
@@ -19776,23 +19776,23 @@
         <v>71.642380952380947</v>
       </c>
       <c r="F378">
-        <f t="shared" ref="F378:R378" si="145">AVERAGE(F369:I375)</f>
+        <f t="shared" ref="F378:R378" si="151">AVERAGE(F369:I375)</f>
         <v>76.490476190476215</v>
       </c>
       <c r="J378">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>76.142857142857139</v>
       </c>
       <c r="N378">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>77.972631578947357</v>
       </c>
       <c r="R378">
-        <f t="shared" si="145"/>
+        <f t="shared" si="151"/>
         <v>81.504782608695663</v>
       </c>
       <c r="V378">
-        <f t="shared" ref="V378:V380" si="146">AVERAGE(B378:R378)</f>
+        <f t="shared" ref="V378:V380" si="152">AVERAGE(B378:R378)</f>
         <v>76.75062569467147</v>
       </c>
     </row>
@@ -19805,23 +19805,23 @@
         <v>75.039444444444442</v>
       </c>
       <c r="F379">
-        <f t="shared" ref="F379:R379" si="147">AVERAGEIF(F369:I375,"&gt;60")</f>
+        <f t="shared" ref="F379:R379" si="153">AVERAGEIF(F369:I375,"&gt;60")</f>
         <v>78.369473684210547</v>
       </c>
       <c r="J379">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>79.723333333333315</v>
       </c>
       <c r="N379">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>81.403529411764694</v>
       </c>
       <c r="R379">
-        <f t="shared" si="147"/>
+        <f t="shared" si="153"/>
         <v>85.424000000000007</v>
       </c>
       <c r="V379">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>79.991956174750584</v>
       </c>
     </row>
@@ -19834,23 +19834,23 @@
         <v>11.635747034360048</v>
       </c>
       <c r="F380">
-        <f t="shared" ref="F380:R380" si="148">STDEV(F369:I375)</f>
+        <f t="shared" ref="F380:R380" si="154">STDEV(F369:I375)</f>
         <v>13.724786510612871</v>
       </c>
       <c r="J380">
-        <f t="shared" si="148"/>
+        <f t="shared" si="154"/>
         <v>14.534940021499075</v>
       </c>
       <c r="N380">
-        <f t="shared" si="148"/>
+        <f t="shared" si="154"/>
         <v>13.870904737817778</v>
       </c>
       <c r="R380">
-        <f t="shared" si="148"/>
+        <f t="shared" si="154"/>
         <v>17.840674638070759</v>
       </c>
       <c r="V380">
-        <f t="shared" si="146"/>
+        <f t="shared" si="152"/>
         <v>14.321410588472105</v>
       </c>
     </row>
